--- a/ejemplos/variaciones.xlsx
+++ b/ejemplos/variaciones.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,104 +442,156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Septiembre de AMZN</t>
+          <t>Precio inicio Septiembre de AAPL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3157.75</v>
+        <v>111.059998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Septiembre de AMZN</t>
+          <t>Precio fin Septiembre de AAPL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3208</v>
+        <v>117.639999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Octubre de AMZN</t>
+          <t>Precio inicio Octubre de AAPL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3141.139893</v>
+        <v>113.790001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Octubre de AMZN</t>
+          <t>Precio fin Octubre de AAPL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3208</v>
+        <v>117.639999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Septiembre de GOOG</t>
+          <t>Precio hace un año AAPL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672.109985</v>
+        <v>65.922501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Septiembre de GOOG</t>
+          <t>Ultimo precio AAPL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1484.27002</v>
+        <v>118.639999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Octubre de GOOG</t>
+          <t>Precio inicio Septiembre de AMD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1466.800049</v>
+        <v>77.089996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Octubre de GOOG</t>
+          <t>Precio fin Septiembre de AMD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1484.27002</v>
+        <v>83.05999799999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Variacion Septiembre</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>En Septiembre bajo mas la accion: AMZN</t>
-        </is>
+          <t>Precio inicio Octubre de AMD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Precio fin Octubre de AMD</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.05999799999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Precio hace un año AMD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>40.419998</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Ultimo precio AMD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.279999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Variacion Septiembre</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>En Septiembre crecio mas la accion: AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Variacion Octubre</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>En Octubre crecio mas la accion: GOOG</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>En Octubre crecio mas la accion: AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Variacion en los ultimos 12 meses</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>En los últimos 12 mese crecio mas la accion: AAPL</t>
         </is>
       </c>
     </row>
